--- a/data/trans_orig/P41C_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE9C09B4-F6B2-431A-BBDA-1E8B109DDD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6EB9240-62A9-49AC-8230-800689FA54E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C11B0F4-D548-42C7-BE22-21A9F950544E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE3736C6-A742-48F6-82C2-0F7C64903EEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="192">
   <si>
     <t>Población según si han tenido o tienen dificultades para tener un embarazo en 2023 (Tasa respuesta: 18,3%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>98,56%</t>
   </si>
   <si>
-    <t>92,29%</t>
+    <t>92,57%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>95,61%</t>
+    <t>96,12%</t>
   </si>
   <si>
     <t>Sí, ya lo intentamos anteriormente, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en promedio</t>
@@ -107,13 +107,13 @@
     <t>1,44%</t>
   </si>
   <si>
-    <t>7,71%</t>
+    <t>7,43%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>4,39%</t>
+    <t>3,88%</t>
   </si>
   <si>
     <t>Sí, ya lo intentamos anteriormente con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio durante</t>
@@ -137,28 +137,28 @@
     <t>94,15%</t>
   </si>
   <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
   <si>
     <t>96,55%</t>
   </si>
   <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>1,73%</t>
@@ -173,430 +173,442 @@
     <t>0,42%</t>
   </si>
   <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
+    <t>7,53%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>3,43%</t>
+    <t>3,45%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>13,88%</t>
+    <t>12,89%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>3,4%</t>
+    <t>3,31%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>2,48%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1011,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620CC7D9-1D78-4E8A-8F87-81E273D41EE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADFAD22-A76E-42FF-AB40-0F649B0E5F8F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1596,13 +1608,13 @@
         <v>2628</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1626,13 +1638,13 @@
         <v>2628</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,13 +1659,13 @@
         <v>4579</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1662,13 +1674,13 @@
         <v>1367</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1677,13 +1689,13 @@
         <v>5946</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,7 +1751,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1751,13 +1763,13 @@
         <v>303514</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H16" s="7">
         <v>336</v>
@@ -1766,13 +1778,13 @@
         <v>256180</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M16" s="7">
         <v>556</v>
@@ -1781,13 +1793,13 @@
         <v>559694</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,7 +1820,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1817,13 +1829,13 @@
         <v>2443</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1835,10 +1847,10 @@
         <v>44</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,13 +1865,13 @@
         <v>4380</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -1868,13 +1880,13 @@
         <v>6140</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -1883,13 +1895,13 @@
         <v>10520</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,7 +1922,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1919,13 +1931,13 @@
         <v>649</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1934,13 +1946,13 @@
         <v>649</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,13 +1967,13 @@
         <v>2394</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -1970,13 +1982,13 @@
         <v>4174</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -1985,13 +1997,13 @@
         <v>6568</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,7 +2059,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2059,13 +2071,13 @@
         <v>84511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>155</v>
@@ -2074,13 +2086,13 @@
         <v>114525</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>225</v>
@@ -2089,13 +2101,13 @@
         <v>199036</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,7 +2128,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2125,13 +2137,13 @@
         <v>727</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -2140,13 +2152,13 @@
         <v>2012</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,13 +2173,13 @@
         <v>2245</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -2176,13 +2188,13 @@
         <v>2146</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -2191,13 +2203,13 @@
         <v>4391</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,7 +2230,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2227,13 +2239,13 @@
         <v>1247</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2242,13 +2254,13 @@
         <v>1247</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2275,13 @@
         <v>1126</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2278,13 +2290,13 @@
         <v>1164</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2293,13 +2305,13 @@
         <v>2290</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,7 +2367,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2367,13 +2379,13 @@
         <v>151216</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>242</v>
@@ -2382,13 +2394,13 @@
         <v>186189</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M28" s="7">
         <v>386</v>
@@ -2397,13 +2409,13 @@
         <v>337406</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,7 +2436,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2454,7 +2466,7 @@
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,13 +2481,13 @@
         <v>5947</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -2484,13 +2496,13 @@
         <v>6791</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -2499,13 +2511,13 @@
         <v>12738</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,7 +2538,7 @@
         <v>20</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2556,7 +2568,7 @@
         <v>20</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,13 +2583,13 @@
         <v>3198</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -2586,13 +2598,13 @@
         <v>4237</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -2601,13 +2613,13 @@
         <v>7435</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2687,13 @@
         <v>679309</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H34" s="7">
         <v>971</v>
@@ -2690,13 +2702,13 @@
         <v>723056</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M34" s="7">
         <v>1535</v>
@@ -2705,13 +2717,13 @@
         <v>1402365</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,13 +2738,13 @@
         <v>1284</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -2741,13 +2753,13 @@
         <v>3549</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M35" s="7">
         <v>7</v>
@@ -2756,13 +2768,13 @@
         <v>4834</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2789,13 @@
         <v>12571</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -2792,13 +2804,13 @@
         <v>15670</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="M36" s="7">
         <v>34</v>
@@ -2807,13 +2819,13 @@
         <v>28241</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2840,13 @@
         <v>2628</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -2843,13 +2855,13 @@
         <v>1896</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -2858,13 +2870,13 @@
         <v>4524</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2891,13 @@
         <v>11296</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H38" s="7">
         <v>12</v>
@@ -2894,13 +2906,13 @@
         <v>10942</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M38" s="7">
         <v>20</v>
@@ -2909,13 +2921,13 @@
         <v>22239</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,7 +2983,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P41C_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6EB9240-62A9-49AC-8230-800689FA54E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87AC4955-5C0D-42DE-AA6A-F14D04A05B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE3736C6-A742-48F6-82C2-0F7C64903EEE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{35A7DC2F-EA7C-4F31-9027-BF80C3003669}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No</t>
@@ -131,7 +131,7 @@
     <t>Sí, en la actualidad lo llevamos intentando con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>94,15%</t>
@@ -215,7 +215,7 @@
     <t>6,95%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>97,82%</t>
@@ -326,7 +326,7 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>94,78%</t>
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADFAD22-A76E-42FF-AB40-0F649B0E5F8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FA4D17-7F29-4C19-B2AC-B6C70B0E5BA2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41C_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87AC4955-5C0D-42DE-AA6A-F14D04A05B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A81860B-E6A4-4197-AC9A-0E1EDCA6D99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{35A7DC2F-EA7C-4F31-9027-BF80C3003669}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BA0D9582-75EC-42C0-8598-F2ECCC7E509D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="188">
   <si>
     <t>Población según si han tenido o tienen dificultades para tener un embarazo en 2023 (Tasa respuesta: 18,3%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>98,56%</t>
   </si>
   <si>
-    <t>92,57%</t>
+    <t>92,29%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>96,12%</t>
+    <t>95,61%</t>
   </si>
   <si>
     <t>Sí, ya lo intentamos anteriormente, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en promedio</t>
@@ -107,13 +107,13 @@
     <t>1,44%</t>
   </si>
   <si>
-    <t>7,43%</t>
+    <t>7,71%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>3,88%</t>
+    <t>4,39%</t>
   </si>
   <si>
     <t>Sí, ya lo intentamos anteriormente con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio durante</t>
@@ -137,28 +137,28 @@
     <t>94,15%</t>
   </si>
   <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>96,55%</t>
   </si>
   <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>1,73%</t>
@@ -173,433 +173,421 @@
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,32%</t>
+    <t>2,13%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>0,9%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>0,08%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>2,54%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -608,7 +596,7 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>2,48%</t>
+    <t>2,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1023,7 +1011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FA4D17-7F29-4C19-B2AC-B6C70B0E5BA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761EF116-CEEC-4E47-8ADC-F3053D5D23C0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1608,13 +1596,13 @@
         <v>2628</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1638,13 +1626,13 @@
         <v>2628</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1647,13 @@
         <v>4579</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1674,13 +1662,13 @@
         <v>1367</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1689,13 +1677,13 @@
         <v>5946</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,7 +1739,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1763,13 +1751,13 @@
         <v>303514</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H16" s="7">
         <v>336</v>
@@ -1778,13 +1766,13 @@
         <v>256180</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M16" s="7">
         <v>556</v>
@@ -1793,13 +1781,13 @@
         <v>559694</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,7 +1808,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1829,13 +1817,13 @@
         <v>2443</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1847,10 +1835,10 @@
         <v>44</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,13 +1853,13 @@
         <v>4380</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -1880,13 +1868,13 @@
         <v>6140</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -1895,13 +1883,13 @@
         <v>10520</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,7 +1910,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1931,13 +1919,13 @@
         <v>649</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1946,13 +1934,13 @@
         <v>649</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,13 +1955,13 @@
         <v>2394</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -1982,13 +1970,13 @@
         <v>4174</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -1997,13 +1985,13 @@
         <v>6568</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,7 +2047,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2071,13 +2059,13 @@
         <v>84511</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>155</v>
@@ -2086,13 +2074,13 @@
         <v>114525</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>225</v>
@@ -2101,13 +2089,13 @@
         <v>199036</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,7 +2116,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2137,13 +2125,13 @@
         <v>727</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -2152,13 +2140,13 @@
         <v>2012</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,13 +2161,13 @@
         <v>2245</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -2188,13 +2176,13 @@
         <v>2146</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -2203,13 +2191,13 @@
         <v>4391</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,7 +2218,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2239,13 +2227,13 @@
         <v>1247</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2254,13 +2242,13 @@
         <v>1247</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2263,13 @@
         <v>1126</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2290,13 +2278,13 @@
         <v>1164</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2305,13 +2293,13 @@
         <v>2290</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,7 +2355,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2379,13 +2367,13 @@
         <v>151216</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>242</v>
@@ -2394,13 +2382,13 @@
         <v>186189</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M28" s="7">
         <v>386</v>
@@ -2409,13 +2397,13 @@
         <v>337406</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,7 +2424,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2466,7 +2454,7 @@
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,13 +2469,13 @@
         <v>5947</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -2496,13 +2484,13 @@
         <v>6791</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -2511,13 +2499,13 @@
         <v>12738</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,7 +2526,7 @@
         <v>20</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2568,7 +2556,7 @@
         <v>20</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2571,13 @@
         <v>3198</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -2598,13 +2586,13 @@
         <v>4237</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -2613,13 +2601,13 @@
         <v>7435</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2675,13 @@
         <v>679309</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H34" s="7">
         <v>971</v>
@@ -2702,13 +2690,13 @@
         <v>723056</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M34" s="7">
         <v>1535</v>
@@ -2717,13 +2705,13 @@
         <v>1402365</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2726,13 @@
         <v>1284</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -2753,13 +2741,13 @@
         <v>3549</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M35" s="7">
         <v>7</v>
@@ -2768,13 +2756,13 @@
         <v>4834</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2777,13 @@
         <v>12571</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -2804,13 +2792,13 @@
         <v>15670</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="M36" s="7">
         <v>34</v>
@@ -2819,13 +2807,13 @@
         <v>28241</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2828,13 @@
         <v>2628</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -2855,13 +2843,13 @@
         <v>1896</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -2870,13 +2858,13 @@
         <v>4524</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2879,13 @@
         <v>11296</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H38" s="7">
         <v>12</v>
@@ -2906,13 +2894,13 @@
         <v>10942</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M38" s="7">
         <v>20</v>
@@ -2921,13 +2909,13 @@
         <v>22239</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,7 +2971,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P41C_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A81860B-E6A4-4197-AC9A-0E1EDCA6D99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2649AF09-E771-4695-AEB2-306E37D2F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BA0D9582-75EC-42C0-8598-F2ECCC7E509D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{10D94D61-D030-4C78-BF23-28F4CF03CCAB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="181">
   <si>
     <t>Población según si han tenido o tienen dificultades para tener un embarazo en 2023 (Tasa respuesta: 18,3%)</t>
   </si>
@@ -65,538 +65,517 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>Sí, ya lo intentamos anteriormente, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en promedio</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>Sí, ya lo intentamos anteriormente con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio durante</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>Sí, en la actualidad lo llevamos intentando, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>Sí, en la actualidad lo llevamos intentando con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>Sí, ya lo intentamos anteriormente, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en promedio</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>Sí, ya lo intentamos anteriormente con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio durante</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>Sí, en la actualidad lo llevamos intentando, aunque sin relaciones sexuales frecuentes (menos de 2 días a la semana, en</t>
-  </si>
-  <si>
-    <t>Sí, en la actualidad lo llevamos intentando con relaciones sexuales frecuentes (al menos 2 días a la semana, en promedio</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>0,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1011,8 +990,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761EF116-CEEC-4E47-8ADC-F3053D5D23C0}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC995C0C-E643-4D69-B360-F4B5BE095E5B}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1129,10 +1108,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="D4" s="7">
-        <v>24102</v>
+        <v>140148</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1144,10 +1123,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="I4" s="7">
-        <v>25960</v>
+        <v>156621</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1156,28 +1135,28 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>64</v>
+        <v>368</v>
       </c>
       <c r="N4" s="7">
-        <v>50061</v>
+        <v>296769</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1186,49 +1165,49 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1237,64 +1216,64 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2761</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1303,79 +1282,79 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>2761</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>4184</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1313</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>5496</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1384,108 +1363,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="D9" s="7">
-        <v>24102</v>
+        <v>147092</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="I9" s="7">
-        <v>26339</v>
+        <v>158839</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M9" s="7">
-        <v>65</v>
+        <v>376</v>
       </c>
       <c r="N9" s="7">
-        <v>50440</v>
+        <v>305931</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="D10" s="7">
-        <v>115966</v>
+        <v>485390</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>198</v>
+        <v>336</v>
       </c>
       <c r="I10" s="7">
-        <v>140202</v>
+        <v>233979</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>304</v>
+        <v>556</v>
       </c>
       <c r="N10" s="7">
-        <v>256168</v>
+        <v>719369</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1494,196 +1473,196 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>2207</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>2207</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>4324</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I12" s="7">
-        <v>593</v>
+        <v>5717</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N12" s="7">
-        <v>593</v>
+        <v>10042</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>2628</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>2628</v>
+        <v>582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>4579</v>
+        <v>2223</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>1367</v>
+        <v>3567</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>5946</v>
+        <v>5790</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1692,210 +1671,210 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="D15" s="7">
-        <v>123173</v>
+        <v>491937</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H15" s="7">
-        <v>201</v>
+        <v>354</v>
       </c>
       <c r="I15" s="7">
-        <v>142161</v>
+        <v>246053</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M15" s="7">
-        <v>311</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>265334</v>
+        <v>737990</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="D16" s="7">
-        <v>303514</v>
+        <v>80177</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
-        <v>336</v>
+        <v>155</v>
       </c>
       <c r="I16" s="7">
-        <v>256180</v>
+        <v>104035</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
-        <v>556</v>
+        <v>225</v>
       </c>
       <c r="N16" s="7">
-        <v>559694</v>
+        <v>184213</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1208</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>2443</v>
+        <v>665</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>2443</v>
+        <v>1873</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>72</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>4380</v>
+        <v>2094</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="H18" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>6140</v>
+        <v>1992</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="M18" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>10520</v>
+        <v>4085</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -1904,94 +1883,94 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>649</v>
+        <v>1141</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>649</v>
+        <v>1141</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1060</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1045</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
-        <v>2394</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>4174</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6</v>
-      </c>
       <c r="N20" s="7">
-        <v>6568</v>
+        <v>2105</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,210 +1979,210 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="D21" s="7">
-        <v>310287</v>
+        <v>84539</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H21" s="7">
-        <v>354</v>
+        <v>161</v>
       </c>
       <c r="I21" s="7">
-        <v>269587</v>
+        <v>108878</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M21" s="7">
-        <v>580</v>
+        <v>236</v>
       </c>
       <c r="N21" s="7">
-        <v>579874</v>
+        <v>193417</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="D22" s="7">
-        <v>84511</v>
+        <v>147212</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="I22" s="7">
-        <v>114525</v>
+        <v>171206</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
-        <v>225</v>
+        <v>386</v>
       </c>
       <c r="N22" s="7">
-        <v>199036</v>
+        <v>318417</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>1284</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>2012</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" s="7">
-        <v>2245</v>
+        <v>5557</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="H24" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>2146</v>
+        <v>6407</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="M24" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N24" s="7">
-        <v>4391</v>
+        <v>11964</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -2212,94 +2191,94 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>1247</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>1247</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>1126</v>
+        <v>3081</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I26" s="7">
-        <v>1164</v>
+        <v>3896</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="M26" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N26" s="7">
-        <v>2290</v>
+        <v>6977</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,306 +2287,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="D27" s="7">
-        <v>89166</v>
+        <v>155851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H27" s="7">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="I27" s="7">
-        <v>119809</v>
+        <v>181509</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M27" s="7">
-        <v>236</v>
+        <v>408</v>
       </c>
       <c r="N27" s="7">
-        <v>208975</v>
+        <v>337359</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>144</v>
+        <v>564</v>
       </c>
       <c r="D28" s="7">
-        <v>151216</v>
+        <v>852928</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="H28" s="7">
-        <v>242</v>
+        <v>971</v>
       </c>
       <c r="I28" s="7">
-        <v>186189</v>
+        <v>665842</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="M28" s="7">
-        <v>386</v>
+        <v>1535</v>
       </c>
       <c r="N28" s="7">
-        <v>337406</v>
+        <v>1518768</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>1208</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>3225</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>4433</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D30" s="7">
-        <v>5947</v>
+        <v>11975</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="H30" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I30" s="7">
-        <v>6791</v>
+        <v>14668</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="M30" s="7">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="N30" s="7">
-        <v>12738</v>
+        <v>26643</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>2761</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>1724</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D32" s="7">
-        <v>3198</v>
+        <v>10548</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="H32" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I32" s="7">
-        <v>4237</v>
+        <v>9821</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M32" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N32" s="7">
-        <v>7435</v>
+        <v>20368</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,370 +2595,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>152</v>
+        <v>587</v>
       </c>
       <c r="D33" s="7">
-        <v>160361</v>
+        <v>879419</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H33" s="7">
-        <v>256</v>
+        <v>1013</v>
       </c>
       <c r="I33" s="7">
-        <v>197217</v>
+        <v>695279</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M33" s="7">
-        <v>408</v>
+        <v>1600</v>
       </c>
       <c r="N33" s="7">
-        <v>357578</v>
+        <v>1574697</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>564</v>
-      </c>
-      <c r="D34" s="7">
-        <v>679309</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H34" s="7">
-        <v>971</v>
-      </c>
-      <c r="I34" s="7">
-        <v>723056</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M34" s="7">
-        <v>1535</v>
-      </c>
-      <c r="N34" s="7">
-        <v>1402365</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="7">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1284</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" s="7">
-        <v>5</v>
-      </c>
-      <c r="I35" s="7">
-        <v>3549</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M35" s="7">
-        <v>7</v>
-      </c>
-      <c r="N35" s="7">
-        <v>4834</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="7">
-        <v>11</v>
-      </c>
-      <c r="D36" s="7">
-        <v>12571</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H36" s="7">
-        <v>23</v>
-      </c>
-      <c r="I36" s="7">
-        <v>15670</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M36" s="7">
-        <v>34</v>
-      </c>
-      <c r="N36" s="7">
-        <v>28241</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="7">
-        <v>2</v>
-      </c>
-      <c r="D37" s="7">
-        <v>2628</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1896</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M37" s="7">
-        <v>4</v>
-      </c>
-      <c r="N37" s="7">
-        <v>4524</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="7">
-        <v>8</v>
-      </c>
-      <c r="D38" s="7">
-        <v>11296</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="A34" t="s">
         <v>180</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H38" s="7">
-        <v>12</v>
-      </c>
-      <c r="I38" s="7">
-        <v>10942</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M38" s="7">
-        <v>20</v>
-      </c>
-      <c r="N38" s="7">
-        <v>22239</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>587</v>
-      </c>
-      <c r="D39" s="7">
-        <v>707089</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="7">
-        <v>1013</v>
-      </c>
-      <c r="I39" s="7">
-        <v>755113</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M39" s="7">
-        <v>1600</v>
-      </c>
-      <c r="N39" s="7">
-        <v>1462202</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>187</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
